--- a/files/locktimes.xlsx
+++ b/files/locktimes.xlsx
@@ -1,35 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bananenhoschi/Dev/fhnw/ip6/IP6-Optimal-Scheduling-of-Project-Presentations/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB30EF30-E8E8-0540-9A6B-18DE9C24ADA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11763C56-9E6F-F541-BC49-69776F37019A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560"/>
+    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{BB9F9AC0-D75E-2345-B23C-423F38DB838E}"/>
   </bookViews>
   <sheets>
-    <sheet name="locktimes" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="142" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>initials</t>
   </si>
   <si>
+    <t>Fr 08:00</t>
+  </si>
+  <si>
+    <t>Fr 08:45</t>
+  </si>
+  <si>
+    <t>Fr 09:30</t>
+  </si>
+  <si>
+    <t>Fr 10:15</t>
+  </si>
+  <si>
+    <t>Fr 11:00</t>
+  </si>
+  <si>
+    <t>Fr 11:45</t>
+  </si>
+  <si>
+    <t>Fr 12:30</t>
+  </si>
+  <si>
+    <t>Fr 13:30</t>
+  </si>
+  <si>
+    <t>Fr 14:15</t>
+  </si>
+  <si>
+    <t>Fr 15:00</t>
+  </si>
+  <si>
+    <t>Fr 15:45</t>
+  </si>
+  <si>
+    <t>Fr 16:30</t>
+  </si>
+  <si>
+    <t>Fr 17:15</t>
+  </si>
+  <si>
+    <t>Sa 08:00</t>
+  </si>
+  <si>
+    <t>Sa 08:45</t>
+  </si>
+  <si>
+    <t>Sa 09:30</t>
+  </si>
+  <si>
+    <t>Sa 10:15</t>
+  </si>
+  <si>
+    <t>Sa 11:00</t>
+  </si>
+  <si>
     <t>abu</t>
   </si>
   <si>
@@ -355,67 +417,13 @@
   </si>
   <si>
     <t>fcl</t>
-  </si>
-  <si>
-    <t>Fr 08:00</t>
-  </si>
-  <si>
-    <t>Fr 08:45</t>
-  </si>
-  <si>
-    <t>Fr 09:30</t>
-  </si>
-  <si>
-    <t>Fr 10:15</t>
-  </si>
-  <si>
-    <t>Fr 11:00</t>
-  </si>
-  <si>
-    <t>Fr 11:45</t>
-  </si>
-  <si>
-    <t>Fr 12:30</t>
-  </si>
-  <si>
-    <t>Fr 13:30</t>
-  </si>
-  <si>
-    <t>Fr 14:15</t>
-  </si>
-  <si>
-    <t>Fr 15:00</t>
-  </si>
-  <si>
-    <t>Fr 15:45</t>
-  </si>
-  <si>
-    <t>Fr 16:30</t>
-  </si>
-  <si>
-    <t>Fr 17:15</t>
-  </si>
-  <si>
-    <t>Sa 08:00</t>
-  </si>
-  <si>
-    <t>Sa 08:45</t>
-  </si>
-  <si>
-    <t>Sa 09:30</t>
-  </si>
-  <si>
-    <t>Sa 10:15</t>
-  </si>
-  <si>
-    <t>Sa 11:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,521 +431,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <start/>
-      <end/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF7F7F7F"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF3F3F3F"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="double">
-        <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
-        <color rgb="FF3F3F3F"/>
-      </end>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
-        <color rgb="FFB2B2B2"/>
-      </end>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,7 +472,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1106,25 +625,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1132,25 +651,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1163,21 +682,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1191,7 +710,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1203,32 +722,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1248,11 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F88662-5DA6-C74A-BBD0-DF5CFE26C077}">
   <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,646 +781,646 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/locktimes.xlsx
+++ b/files/locktimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bananenhoschi/Dev/fhnw/ip6/IP6-Optimal-Scheduling-of-Project-Presentations/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11763C56-9E6F-F541-BC49-69776F37019A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD06BC4-15D3-1243-8F1F-EB242A35A6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{BB9F9AC0-D75E-2345-B23C-423F38DB838E}"/>
   </bookViews>
@@ -33,63 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>initials</t>
-  </si>
-  <si>
-    <t>Fr 08:00</t>
-  </si>
-  <si>
-    <t>Fr 08:45</t>
-  </si>
-  <si>
-    <t>Fr 09:30</t>
-  </si>
-  <si>
-    <t>Fr 10:15</t>
-  </si>
-  <si>
-    <t>Fr 11:00</t>
-  </si>
-  <si>
-    <t>Fr 11:45</t>
-  </si>
-  <si>
-    <t>Fr 12:30</t>
-  </si>
-  <si>
-    <t>Fr 13:30</t>
-  </si>
-  <si>
-    <t>Fr 14:15</t>
-  </si>
-  <si>
-    <t>Fr 15:00</t>
-  </si>
-  <si>
-    <t>Fr 15:45</t>
-  </si>
-  <si>
-    <t>Fr 16:30</t>
-  </si>
-  <si>
-    <t>Fr 17:15</t>
-  </si>
-  <si>
-    <t>Sa 08:00</t>
-  </si>
-  <si>
-    <t>Sa 08:45</t>
-  </si>
-  <si>
-    <t>Sa 09:30</t>
-  </si>
-  <si>
-    <t>Sa 10:15</t>
-  </si>
-  <si>
-    <t>Sa 11:00</t>
   </si>
   <si>
     <t>abu</t>
@@ -771,7 +717,7 @@
   <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,644 +726,644 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1">
         <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/files/locktimes.xlsx
+++ b/files/locktimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bananenhoschi/Dev/fhnw/ip6/IP6-Optimal-Scheduling-of-Project-Presentations/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD06BC4-15D3-1243-8F1F-EB242A35A6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7127328-A070-A442-8684-4096C9C453A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{BB9F9AC0-D75E-2345-B23C-423F38DB838E}"/>
   </bookViews>
@@ -33,9 +33,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>initials</t>
+  </si>
+  <si>
+    <t>Fr 08:00</t>
+  </si>
+  <si>
+    <t>Fr 08:45</t>
+  </si>
+  <si>
+    <t>Fr 09:30</t>
+  </si>
+  <si>
+    <t>Fr 10:15</t>
+  </si>
+  <si>
+    <t>Fr 11:00</t>
+  </si>
+  <si>
+    <t>Fr 11:45</t>
+  </si>
+  <si>
+    <t>Fr 12:30</t>
+  </si>
+  <si>
+    <t>Fr 13:30</t>
+  </si>
+  <si>
+    <t>Fr 14:15</t>
+  </si>
+  <si>
+    <t>Fr 15:00</t>
+  </si>
+  <si>
+    <t>Fr 15:45</t>
+  </si>
+  <si>
+    <t>Fr 16:30</t>
+  </si>
+  <si>
+    <t>Fr 17:15</t>
+  </si>
+  <si>
+    <t>Sa 08:00</t>
+  </si>
+  <si>
+    <t>Sa 08:45</t>
+  </si>
+  <si>
+    <t>Sa 09:30</t>
+  </si>
+  <si>
+    <t>Sa 10:15</t>
+  </si>
+  <si>
+    <t>Sa 11:00</t>
   </si>
   <si>
     <t>abu</t>
@@ -717,7 +771,7 @@
   <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,644 +780,644 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="R1" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
